--- a/biology/Médecine/Institut_de_la_vision/Institut_de_la_vision.xlsx
+++ b/biology/Médecine/Institut_de_la_vision/Institut_de_la_vision.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Institut de la vision, est l’un des plus importants centres de recherche intégrée sur les maladies de la vision en Europe[1]. Conçu comme un lieu de rassemblement et d’échanges, il réunit sur un même site la recherche fondamentale, clinique et industrielle dans un partenariat public-privé[2].
+L'Institut de la vision, est l’un des plus importants centres de recherche intégrée sur les maladies de la vision en Europe. Conçu comme un lieu de rassemblement et d’échanges, il réunit sur un même site la recherche fondamentale, clinique et industrielle dans un partenariat public-privé.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Axes de recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les corrélations génotype-phénotype
 La physiopathologie et les options thérapeutiques dans les rétinopathies pigmentaires
@@ -549,13 +563,15 @@
           <t>Partenariat public-privé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Entreprises Publiques
 Six industriels (Iris Pharma, Horus Pharma, Fovea pharmaceuticals, Essilor, Théa et Visiotact) ont intégré les locaux de l'Institut de la Vision depuis son ouverture en 2008.
 Institutions publiques présentes dans ce partenariat public-privé
 La région Île-de-France, la mairie de Paris, l'Hôpital des Quinze-Vingts
-Institut national de la santé et de la recherche médicale, Centre national de la recherche scientifique[3], Université Pierre-et-Marie-Curie[4]
+Institut national de la santé et de la recherche médicale, Centre national de la recherche scientifique, Université Pierre-et-Marie-Curie
 Fondations et associations
 Prix Clément-Codron de l'Académie des Sciences</t>
         </is>
